--- a/backend/benefit/calculator/tests/Helsinki-lisa laskurin testitapaukset.xlsx
+++ b/backend/benefit/calculator/tests/Helsinki-lisa laskurin testitapaukset.xlsx
@@ -1,23 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24722"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\KANSLIAS000002\HOME2$\VUORESO\System\Desktop\Digitalisointi\LAsketa esimerkit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JanneJ\Documents\Varaani\HKI-lisä\Laskuri\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1333" documentId="8_{EAB5B95F-C968-4491-B346-1A0F472715C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9662124A-12C0-4C52-9FC5-BB92E6D53103}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BEC57FD-3818-4862-896A-282C7A6676D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12432" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="420" yWindow="1125" windowWidth="38040" windowHeight="18855" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Palkan Helsinki-lisä" sheetId="5" r:id="rId1"/>
-    <sheet name="Työllistämisen Helsinki-lisä" sheetId="4" r:id="rId2"/>
-    <sheet name="Palkkatuettu oppisopimus" sheetId="6" r:id="rId3"/>
+    <sheet name="Kansi" sheetId="7" r:id="rId1"/>
+    <sheet name="Vakiot" sheetId="10" r:id="rId2"/>
+    <sheet name="Palkan Helsinki-lisä" sheetId="5" r:id="rId3"/>
+    <sheet name="Palkan Helsinki-lisä-old" sheetId="8" r:id="rId4"/>
+    <sheet name="Työllistämisen Helsinki-lisä" sheetId="4" r:id="rId5"/>
+    <sheet name="Palkkatuettu oppisopimus" sheetId="6" r:id="rId6"/>
+    <sheet name="Palkkatuettu oppisopimus-old" sheetId="11" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <definedNames>
+    <definedName name="HEL_Lisä_Max">Vakiot!$B$12</definedName>
+    <definedName name="Max_100" comment="Maksimi palkkatuki 100% palkkatuella">Vakiot!$F$5</definedName>
+    <definedName name="Max_50" comment="Maksimi palkkatuki 50% palkkatuella">Vakiot!$F$7</definedName>
+    <definedName name="max_70" comment="Maksimi palkkatuki 70% palkkatuella">Vakiot!$F$6</definedName>
+    <definedName name="Palkkatuki_max_yritys">Vakiot!#REF!</definedName>
+  </definedNames>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,6 +40,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,6 +49,260 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={C6EC848A-3DCB-4EB2-BE32-B9732A4F9301}</author>
+    <author>tc={25A071BD-338B-4CDE-A02F-6B4F97CB4F20}</author>
+    <author>tc={52F7102F-29A6-435E-A089-E9187FEFDFDF}</author>
+    <author>tc={15379B39-E0B0-4671-94D9-AE615E7F7EF2}</author>
+    <author>tc={E6E2E05C-38F8-401B-8533-D62D56290061}</author>
+    <author>tc={351B45ED-55B0-4B43-B2DC-210722DFB866}</author>
+    <author>tc={84298F58-0345-4831-A261-9E4A4E4F9CC8}</author>
+    <author>tc={108AB84D-3CAB-4685-9D51-66397AF0B56B}</author>
+    <author>JanneJ</author>
+    <author>tc={8C4F1FA0-57A2-4FCD-BA33-0453312119B6}</author>
+    <author>tc={A5FE85D7-F87E-4974-BF73-95688A2F19E4}</author>
+    <author>tc={7BB5C5E4-1BFD-41C4-9885-D9A3FD942433}</author>
+    <author>tc={391C54A0-4898-4E62-B47A-97CE6E44294C}</author>
+  </authors>
+  <commentList>
+    <comment ref="L3" authorId="0" shapeId="0" xr:uid="{C6EC848A-3DCB-4EB2-BE32-B9732A4F9301}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Palkka muuttuu kesken Helsinki-lisä jakson</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F11" authorId="1" shapeId="0" xr:uid="{25A071BD-338B-4CDE-A02F-6B4F97CB4F20}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Jos haluamme oikeita testitapauksia, niin meidän täytyy muuttaa aloitus ja lopetuspäivämääriä hakemusten mukaisiksi. Onko tämä testin kannalta mahdollista?
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L13" authorId="2" shapeId="0" xr:uid="{52F7102F-29A6-435E-A089-E9187FEFDFDF}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Bruttopalkka ajalle 8.3.2021-31.3.2021 on 1330,27€, sivukulut 638,12 € ja lomaraha yht. 399,08€ , Bruttopalkka ajalle 1.4.2021-7.9.2021 on 1662,84€, sivukulut 737,89€ ja lomaraha yht. 457,25€</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L14" authorId="3" shapeId="0" xr:uid="{15379B39-E0B0-4671-94D9-AE615E7F7EF2}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Bruttopalkka ajalle 8.3.2021-31.3.2021 on 1330,27€, sivukulut 638,12 € ja lomaraha yht. 399,08€ , Bruttopalkka ajalle 1.4.2021-7.9.2021 on 1662,84€, sivukulut 737,89€ ja lomaraha yht. 457,25€</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L15" authorId="4" shapeId="0" xr:uid="{E6E2E05C-38F8-401B-8533-D62D56290061}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Bruttopalkka ajalle 8.3.2021-31.3.2021 on 1330,27€, sivukulut 638,12 € ja lomaraha yht. 399,08€ , Bruttopalkka ajalle 1.4.2021-7.9.2021 on 1662,84€, sivukulut 737,89€ ja lomaraha yht. 457,25€</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E17" authorId="5" shapeId="0" xr:uid="{351B45ED-55B0-4B43-B2DC-210722DFB866}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Valtiontukimaksimi on joko 50% tai 100%. Mistä tämä luku on otettu?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F21" authorId="6" shapeId="0" xr:uid="{84298F58-0345-4831-A261-9E4A4E4F9CC8}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    työaika on 93,30%, tässä täytyy sallia luku kahden desimaalin tarkkuudella</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L21" authorId="7" shapeId="0" xr:uid="{108AB84D-3CAB-4685-9D51-66397AF0B56B}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Hakemuksessa on kaksi palkkatukipäätöstä, josta ensimmäinen ajalle 8.3.2021-7.9.2021, työaika 80%, toinen myöhemmin tehty palkkatukipäätös korvaa ensimmäisen päätöksen huhtikuusta alkaen ja on ajalle 1.4.2021-7.9.2021, työaika 100%</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B37" authorId="8" shapeId="0" xr:uid="{AAA8B7DA-E1F6-4478-B7A8-83B682A11BFC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>JanneJ:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Lasketaan vain jos palkkatuki on 100% 
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E47" authorId="9" shapeId="0" xr:uid="{8C4F1FA0-57A2-4FCD-BA33-0453312119B6}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Saan eri tuloksen kuin Invisionissa, siellä on 690 samassa esimerkissä
+Reply:
+    tämä on saatu kertomalla 2,03kkx340€=690,2 eli pyöristys 690. Jos sinulla on ollut tukiaika kuukausina esim. 2,0333, niin silloin tulokseksi tosiaan tulisi 691,322 eli pyöristettynä 691€</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H47" authorId="10" shapeId="0" xr:uid="{A5FE85D7-F87E-4974-BF73-95688A2F19E4}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Pyöristetty laskusta 11,97x215=2573,55</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E65" authorId="11" shapeId="0" xr:uid="{7BB5C5E4-1BFD-41C4-9885-D9A3FD942433}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Sama tässä, desimaaleja ei ilmoiteta</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H65" authorId="12" shapeId="0" xr:uid="{391C54A0-4898-4E62-B47A-97CE6E44294C}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Matti: päivitetty kukausien määrän laskenta ilman pyöristystä</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={C6EC848A-3DCB-4EB2-BE32-B9732A4F9301}</author>
@@ -56,145 +323,289 @@
     <author>tc={391C54A0-4898-4E62-B47A-97CE6E44294C}</author>
   </authors>
   <commentList>
-    <comment ref="L5" authorId="0" shapeId="0" xr:uid="{C6EC848A-3DCB-4EB2-BE32-B9732A4F9301}">
+    <comment ref="L5" authorId="0" shapeId="0" xr:uid="{93A07328-5AC5-4EDF-8A80-FF2995B02A9B}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Palkka muuttuu kesken Helsinki-lisä jakson</t>
+        </r>
       </text>
     </comment>
-    <comment ref="F13" authorId="1" shapeId="0" xr:uid="{25A071BD-338B-4CDE-A02F-6B4F97CB4F20}">
+    <comment ref="F13" authorId="1" shapeId="0" xr:uid="{C3543015-5536-4ED4-9E4E-7C8FCFE21F9C}">
       <text>
-        <t xml:space="preserve">[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Jos haluamme oikeita testitapauksia, niin meidän täytyy muuttaa aloitus ja lopetuspäivämääriä hakemusten mukaisiksi. Onko tämä testin kannalta mahdollista?
 </t>
+        </r>
       </text>
     </comment>
-    <comment ref="L15" authorId="2" shapeId="0" xr:uid="{52F7102F-29A6-435E-A089-E9187FEFDFDF}">
+    <comment ref="L15" authorId="2" shapeId="0" xr:uid="{A82C5221-56CB-409B-B6E4-76D63EE50016}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Bruttopalkka ajalle 8.3.2021-31.3.2021 on 1330,27€, sivukulut 638,12 € ja lomaraha yht. 399,08€ , Bruttopalkka ajalle 1.4.2021-7.9.2021 on 1662,84€, sivukulut 737,89€ ja lomaraha yht. 457,25€</t>
+        </r>
       </text>
     </comment>
-    <comment ref="L16" authorId="3" shapeId="0" xr:uid="{15379B39-E0B0-4671-94D9-AE615E7F7EF2}">
+    <comment ref="L16" authorId="3" shapeId="0" xr:uid="{009B11FE-62C9-4028-A9D5-0261F687C48C}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Bruttopalkka ajalle 8.3.2021-31.3.2021 on 1330,27€, sivukulut 638,12 € ja lomaraha yht. 399,08€ , Bruttopalkka ajalle 1.4.2021-7.9.2021 on 1662,84€, sivukulut 737,89€ ja lomaraha yht. 457,25€</t>
+        </r>
       </text>
     </comment>
-    <comment ref="L17" authorId="4" shapeId="0" xr:uid="{E6E2E05C-38F8-401B-8533-D62D56290061}">
+    <comment ref="L17" authorId="4" shapeId="0" xr:uid="{3BA6F2DE-151C-490D-A975-C9702DE509E6}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Bruttopalkka ajalle 8.3.2021-31.3.2021 on 1330,27€, sivukulut 638,12 € ja lomaraha yht. 399,08€ , Bruttopalkka ajalle 1.4.2021-7.9.2021 on 1662,84€, sivukulut 737,89€ ja lomaraha yht. 457,25€</t>
+        </r>
       </text>
     </comment>
-    <comment ref="E19" authorId="5" shapeId="0" xr:uid="{351B45ED-55B0-4B43-B2DC-210722DFB866}">
+    <comment ref="E19" authorId="5" shapeId="0" xr:uid="{8ADEDC5E-0016-4602-B96F-291AEB676750}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Valtiontukimaksimi on joko 50% tai 100%. Mistä tämä luku on otettu?</t>
+        </r>
       </text>
     </comment>
-    <comment ref="F23" authorId="6" shapeId="0" xr:uid="{84298F58-0345-4831-A261-9E4A4E4F9CC8}">
+    <comment ref="F23" authorId="6" shapeId="0" xr:uid="{54562B7A-265E-4A5C-9C0F-FEEFD3AB9A38}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     työaika on 93,30%, tässä täytyy sallia luku kahden desimaalin tarkkuudella</t>
+        </r>
       </text>
     </comment>
-    <comment ref="L23" authorId="7" shapeId="0" xr:uid="{108AB84D-3CAB-4685-9D51-66397AF0B56B}">
+    <comment ref="L23" authorId="7" shapeId="0" xr:uid="{93CA794D-18F7-48DF-ABE1-45EFFD07DD61}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Hakemuksessa on kaksi palkkatukipäätöstä, josta ensimmäinen ajalle 8.3.2021-7.9.2021, työaika 80%, toinen myöhemmin tehty palkkatukipäätös korvaa ensimmäisen päätöksen huhtikuusta alkaen ja on ajalle 1.4.2021-7.9.2021, työaika 100%</t>
+        </r>
       </text>
     </comment>
-    <comment ref="H37" authorId="8" shapeId="0" xr:uid="{40C5CA3F-D87A-4B05-9D99-6B4BADE6D398}">
+    <comment ref="H37" authorId="8" shapeId="0" xr:uid="{8DF667F1-E251-439A-B9C1-38399FA255E1}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Palkkauskustannukset laskettu: bruttopalkka+sivukulut+(lomaraha/11,97kk)
 Reply:
     Matti: päivitetty kukausien määrän laskenta ilman pyöristystä</t>
+        </r>
       </text>
     </comment>
-    <comment ref="L37" authorId="9" shapeId="0" xr:uid="{FDEB7308-C9B6-4932-99D6-76D8017CA572}">
+    <comment ref="L37" authorId="9" shapeId="0" xr:uid="{399B296B-AA59-4955-9183-F22C2F826B0C}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     ajalle 7.3.-31.3.2021 2034,0 ja ajalle 1.4.-7.9.2021 2488,16</t>
+        </r>
       </text>
     </comment>
-    <comment ref="H48" authorId="10" shapeId="0" xr:uid="{676BB169-9779-4077-A941-2E55117338AB}">
+    <comment ref="H48" authorId="10" shapeId="0" xr:uid="{C711C6AA-5FBF-4C18-BFC9-673F6A4F5258}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Pyöristetty laskusta 1074,67-859,73=214,93</t>
+        </r>
       </text>
     </comment>
-    <comment ref="E49" authorId="11" shapeId="0" xr:uid="{8C4F1FA0-57A2-4FCD-BA33-0453312119B6}">
+    <comment ref="E49" authorId="11" shapeId="0" xr:uid="{F22DE8EA-0A03-428B-86CF-CE70D3282760}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Saan eri tuloksen kuin Invisionissa, siellä on 690 samassa esimerkissä
 Reply:
     tämä on saatu kertomalla 2,03kkx340€=690,2 eli pyöristys 690. Jos sinulla on ollut tukiaika kuukausina esim. 2,0333, niin silloin tulokseksi tosiaan tulisi 691,322 eli pyöristettynä 691€</t>
+        </r>
       </text>
     </comment>
-    <comment ref="H49" authorId="12" shapeId="0" xr:uid="{A5FE85D7-F87E-4974-BF73-95688A2F19E4}">
+    <comment ref="H49" authorId="12" shapeId="0" xr:uid="{FFB05B99-37B2-43B4-B7D3-E88E0D7BABCA}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Pyöristetty laskusta 11,97x215=2573,55</t>
+        </r>
       </text>
     </comment>
-    <comment ref="E60" authorId="13" shapeId="0" xr:uid="{ACE46109-E222-4883-9558-64C45D63F8B5}">
+    <comment ref="E60" authorId="13" shapeId="0" xr:uid="{96DDE838-6185-41C5-93A4-92C5E208D1F2}">
       <text>
-        <t xml:space="preserve">[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Helsinki-lisä myönnetään euron tarkkuudella, eli pyöristetään lähimpään kokonaiseen euromäärään
 </t>
+        </r>
       </text>
     </comment>
-    <comment ref="E67" authorId="14" shapeId="0" xr:uid="{7BB5C5E4-1BFD-41C4-9885-D9A3FD942433}">
+    <comment ref="E67" authorId="14" shapeId="0" xr:uid="{BA10C713-60FE-4014-9D6C-FF34FB92D169}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Sama tässä, desimaaleja ei ilmoiteta</t>
+        </r>
       </text>
     </comment>
-    <comment ref="H67" authorId="15" shapeId="0" xr:uid="{391C54A0-4898-4E62-B47A-97CE6E44294C}">
+    <comment ref="H67" authorId="15" shapeId="0" xr:uid="{852F0C8E-AF0A-4383-916B-CCA3B41D6B15}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Matti: päivitetty kukausien määrän laskenta ilman pyöristystä</t>
+        </r>
       </text>
     </comment>
   </commentList>
 </comments>
 </file>
 
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={5AB7DA13-1AC4-4169-9894-BAF67AC9B684}</author>
@@ -204,53 +615,194 @@
   <commentList>
     <comment ref="E10" authorId="0" shapeId="0" xr:uid="{5AB7DA13-1AC4-4169-9894-BAF67AC9B684}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Työllistämisen Helsinki-lisää ei myönnetä työnantajalle, joka ei harjoita elinkeinotoimintaa.</t>
+        </r>
       </text>
     </comment>
     <comment ref="F10" authorId="1" shapeId="0" xr:uid="{C1E2C252-2C8C-48FC-B0C2-E99452F9DEE6}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Työllistämisen Helsinki-lisää ei myönnetä työnantajalle, joka ei harjoita elinkeinotoimintaa.</t>
+        </r>
       </text>
     </comment>
     <comment ref="G10" authorId="2" shapeId="0" xr:uid="{7B0053E7-6449-4F95-B424-1931145AFC67}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Työllistämisen Helsinki-lisää ei myönnetä työnantajalle, joka ei harjoita elinkeinotoimintaa.</t>
+        </r>
       </text>
     </comment>
   </commentList>
 </comments>
 </file>
 
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={E9CF2E1B-48CE-478B-9C46-178E6E0F38C0}</author>
     <author>tc={6EF342C0-8BFF-45D2-8DB7-F300C749412C}</author>
   </authors>
   <commentList>
-    <comment ref="C51" authorId="0" shapeId="0" xr:uid="{E9CF2E1B-48CE-478B-9C46-178E6E0F38C0}">
+    <comment ref="C47" authorId="0" shapeId="0" xr:uid="{E9CF2E1B-48CE-478B-9C46-178E6E0F38C0}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Lasketaan esim. (0,3x(1752+469))+((1106/12)x0,3)=691,25</t>
+        </r>
       </text>
     </comment>
-    <comment ref="B52" authorId="1" shapeId="0" xr:uid="{6EF342C0-8BFF-45D2-8DB7-F300C749412C}">
+    <comment ref="D47" authorId="0" shapeId="0" xr:uid="{AC6DE009-01E2-4B3B-B9C6-7784C7D4DF64}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Lasketaan esim. (0,3x(1752+469))+((1106/12)x0,3)=691,25</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E47" authorId="0" shapeId="0" xr:uid="{624567A9-C897-415E-B3EC-A05107023FA2}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Lasketaan esim. (0,3x(1752+469))+((1106/12)x0,3)=691,25</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F47" authorId="0" shapeId="0" xr:uid="{25700A72-EF83-4BEB-8F03-1BD3A26E12D2}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Lasketaan esim. (0,3x(1752+469))+((1106/12)x0,3)=691,25</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B48" authorId="1" shapeId="0" xr:uid="{6EF342C0-8BFF-45D2-8DB7-F300C749412C}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Koulutuskorvaus</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={E9CF2E1B-48CE-478B-9C46-178E6E0F38C0}</author>
+    <author>tc={6EF342C0-8BFF-45D2-8DB7-F300C749412C}</author>
+  </authors>
+  <commentList>
+    <comment ref="C51" authorId="0" shapeId="0" xr:uid="{BC65C6F1-AD14-47B2-9710-CE1A13A84EF2}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Lasketaan esim. (0,3x(1752+469))+((1106/12)x0,3)=691,25</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B52" authorId="1" shapeId="0" xr:uid="{7AC3BAFF-D75A-4F5B-975C-69EE7B35EC30}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Koulutuskorvaus</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -258,7 +810,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="164">
   <si>
     <t>Ensimmäisessä sarakkeessa testin ajoon liittyvät ohjauskoodit</t>
   </si>
@@ -594,19 +1146,220 @@
   </si>
   <si>
     <t>expected_results.time_range_3.total_amount</t>
+  </si>
+  <si>
+    <t>Tätä exceliä käytetään laskurin testien ajamiseen käsittelijän koodia testattaessa</t>
+  </si>
+  <si>
+    <t>Toisessa selite suomeksi</t>
+  </si>
+  <si>
+    <t>Testi arvoja ja tuloksia sarakkeesta C- alkaen</t>
+  </si>
+  <si>
+    <t>Versio</t>
+  </si>
+  <si>
+    <t>Päivä</t>
+  </si>
+  <si>
+    <t>Kommentti</t>
+  </si>
+  <si>
+    <t>v2.0</t>
+  </si>
+  <si>
+    <t>Lomaraha/kk</t>
+  </si>
+  <si>
+    <t>Vakiot</t>
+  </si>
+  <si>
+    <t>Työnantajamuoto:</t>
+  </si>
+  <si>
+    <t>Prosentit</t>
+  </si>
+  <si>
+    <t>Yritys ja/tai elinkeinoa harjoittava yhteisö</t>
+  </si>
+  <si>
+    <t>Valtion tukien enimmäismäärä</t>
+  </si>
+  <si>
+    <t>Palkkatukiprosentti %
+yritykset</t>
+  </si>
+  <si>
+    <t>Palkkatukiprosentti %
+yhdistykset</t>
+  </si>
+  <si>
+    <t>Maksimi tuki €</t>
+  </si>
+  <si>
+    <t>Yleishyödyllinen yhteisö</t>
+  </si>
+  <si>
+    <t>Tukiylärajat</t>
+  </si>
+  <si>
+    <t>Helsinki-lisä_max/kk</t>
+  </si>
+  <si>
+    <t>65% työaikaa vastaava bruttopalkka
+kertoimella 1.23 korotettuna</t>
+  </si>
+  <si>
+    <t>v2.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">korjaus: palkkatuki laskettu väärin, jos palkkatuki 75% maksimituki pitää olla 100%, muutama päivämäärä korjattu, </t>
+  </si>
+  <si>
+    <t>v.2.2</t>
+  </si>
+  <si>
+    <t>Poistettu testit, joissa on toinen palkkatukijakso,
+Lisätty testejä joissa palkkatuki loppuu ennen Helsinki-lisää</t>
+  </si>
+  <si>
+    <t>Koodi lukee kolme sheettiä, -old loppuiset ovat vanhojen sääntöjen aikaan käytetyt mukana referenssinä
+Työllistämisen Helsinki-lisä on ilmeisesti poistumassa 1.7.2023, uudet palkkatuki säännöt ei vaikuta sen laskentaan</t>
+  </si>
+  <si>
+    <t>Helsinki-lisä laskurin testitapaukset - päivitetty 1.7.2023 voimaan tulevien palkkatukiehtojen mukaan</t>
+  </si>
+  <si>
+    <t>Vakiot otettu käyttöön Vakiot-sheetiltä
+Vuodet 21-&gt;23, 22-&gt;24
+100% palkkatuen laskenta lisätty (65% työajan brutto * 1.23)
+Laskenta uusien sääntöjen mukana
+Kaikki laskenta tehdään kaavoilla, vanhassa oli välillä numeroita.</t>
+  </si>
+  <si>
+    <t>v.2.3</t>
+  </si>
+  <si>
+    <t>Kaikki arvot lasketaan nyt kaavoilla, pieniä korjauksia</t>
+  </si>
+  <si>
+    <t>v2.3</t>
+  </si>
+  <si>
+    <t>perustapaus
+max 100%
+palkkatuki 70%, maksimi H-lisä</t>
+  </si>
+  <si>
+    <t xml:space="preserve">perustapaus
+max 50%
+palkkatuki 50%, </t>
+  </si>
+  <si>
+    <t>max 100%
+palkkatuki 70%, 
+palkkatuki aika lyhyempi kuin H-lisä
+tuki aika ei ole tasan kk</t>
+  </si>
+  <si>
+    <t>max 100%
+palkkatuki 100% (100/65 tapaus), vajaa työaika</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oy
+perustapaus
+max 50%
+palkkatuki 50%, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">oy
+perustapaus
+max 100%
+palkkatuki 70%, </t>
+  </si>
+  <si>
+    <t>max 100%
+palkkatuki 50%, maksimi H-lisä, tukiaika ei tasan kk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ry
+perustapaus
+max 100%
+palkkatuki 70%, </t>
+  </si>
+  <si>
+    <t>max 100%
+palkkatuki 100% (100/65 tapaus), vajaa työaika, palkkatuki aika lyhyempi</t>
+  </si>
+  <si>
+    <t>Testaa testin väliin jättämistä, H-lisä/kk tahallisesti väärin</t>
+  </si>
+  <si>
+    <t>oy, perustapausmax 100%
+palkkatuki 50%, maksimi H-lisä, tukiaika ei tasan kk</t>
+  </si>
+  <si>
+    <t>max 50%
+palkkatuki 50%, 
+H-lisä aika pitempi kuin palkkatuki</t>
+  </si>
+  <si>
+    <t>max 100%
+palkkatuki 70%, 
+H-lisä aika pitempi kuin palkkatuki</t>
+  </si>
+  <si>
+    <t>max 100%
+palkkatuki 50%, 
+H-lisä aika pitempi kuin palkkatuki</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oy, max 100%
+palkkatuki 70%, 
+</t>
+  </si>
+  <si>
+    <t>oy,
+max 100%
+palkkatuki 70%, 
+H-lisä aika pitempi kuin palkkatuki</t>
+  </si>
+  <si>
+    <t>max 100%
+palkkatuki 100% (100/65 tapaus), 100% työaika,</t>
+  </si>
+  <si>
+    <t>Dokumentaatiota lisätty: testien kuvaukset</t>
+  </si>
+  <si>
+    <t>Palkkatuki, loppuu ennen H-lisää ja koulutuskorvausta</t>
+  </si>
+  <si>
+    <t>Perustapaus oy, kulukorvaus aika pidempi kuin H-lisä</t>
+  </si>
+  <si>
+    <t>Kaksi oppisopimus jaksoa, palkkatuki loppuu ensin</t>
+  </si>
+  <si>
+    <t>Palkkatuki loppuu ennen H-lisää ja koulutuskorvausta</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="#,##0\ &quot;€&quot;;[Red]\-#,##0\ &quot;€&quot;"/>
-    <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
-    <numFmt numFmtId="166" formatCode="#,##0.00\ [$€-40B]"/>
-    <numFmt numFmtId="167" formatCode="0.0000000"/>
+  <numFmts count="8">
+    <numFmt numFmtId="6" formatCode="#,##0\ &quot;€&quot;;[Red]\-#,##0\ &quot;€&quot;"/>
+    <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ [$€-40B]"/>
+    <numFmt numFmtId="165" formatCode="0.0000000"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$€-40B]_-;\-* #,##0.00\ [$€-40B]_-;_-* &quot;-&quot;??\ [$€-40B]_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="#,##0.00\ &quot;€&quot;"/>
+    <numFmt numFmtId="168" formatCode="#,##0.00\ _€"/>
+    <numFmt numFmtId="169" formatCode="0.00000000"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -642,16 +1395,103 @@
       <name val="Calibri"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -659,15 +1499,83 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -680,18 +1588,98 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="6" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="8" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1098,14 +2086,2411 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52E23540-AF7E-4AFA-97E6-7F3210E773B6}">
+  <dimension ref="B2:D17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="99.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="20" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="D5" s="34" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D6" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D7" s="21" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D8" s="21" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D9" s="21"/>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>118</v>
+      </c>
+      <c r="C13" s="22">
+        <v>45050</v>
+      </c>
+      <c r="D13" s="34" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>132</v>
+      </c>
+      <c r="C14" s="22">
+        <v>45054</v>
+      </c>
+      <c r="D14" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>134</v>
+      </c>
+      <c r="C15" s="22">
+        <v>45056</v>
+      </c>
+      <c r="D15" s="34" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>139</v>
+      </c>
+      <c r="C16" s="22">
+        <v>45057</v>
+      </c>
+      <c r="D16" s="34" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>141</v>
+      </c>
+      <c r="C17" s="22">
+        <v>45058</v>
+      </c>
+      <c r="D17" s="34" t="s">
+        <v>159</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33C550B9-7EB2-4DC2-BE65-6152BB4D0C0A}">
+  <dimension ref="A1:G32"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="3" width="25.75" customWidth="1"/>
+    <col min="4" max="5" width="29.375" style="37" customWidth="1"/>
+    <col min="6" max="6" width="32.75" customWidth="1"/>
+    <col min="7" max="7" width="23.25" customWidth="1"/>
+    <col min="8" max="8" width="10.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="45" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="26"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+    </row>
+    <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" s="20"/>
+      <c r="C3" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+    </row>
+    <row r="4" spans="1:7" s="27" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="D4" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="E4" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="F4" s="30" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="C5" s="31">
+        <v>1</v>
+      </c>
+      <c r="D5" s="31">
+        <v>0.7</v>
+      </c>
+      <c r="E5" s="31">
+        <v>1</v>
+      </c>
+      <c r="F5" s="32">
+        <v>2020</v>
+      </c>
+      <c r="G5" s="33"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="34"/>
+      <c r="C6" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="D6" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="E6" s="31">
+        <v>0.7</v>
+      </c>
+      <c r="F6" s="32">
+        <v>1770</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C7" s="35"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="F7" s="32">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C8" s="35"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D9"/>
+      <c r="E9"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D10"/>
+      <c r="E10"/>
+    </row>
+    <row r="11" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="48" t="s">
+        <v>129</v>
+      </c>
+      <c r="B11" s="49"/>
+      <c r="F11" s="33"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="B12" s="38">
+        <v>800</v>
+      </c>
+      <c r="D12"/>
+      <c r="E12"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="39"/>
+      <c r="B13" s="37"/>
+      <c r="D13"/>
+      <c r="E13"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="34"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="39"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C15" s="37"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="40"/>
+      <c r="C16" s="37"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="34"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="37"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="41"/>
+      <c r="C18" s="37"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C26" s="33"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C27" s="33"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C28" s="33"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C32" s="37"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="A11:B11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C618BC34-3A38-45D6-9211-F1F705D1E76B}">
+  <dimension ref="A1:AV66"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="15" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
+      <selection pane="bottomRight" activeCell="T4" sqref="T4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="49.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.375" style="1" customWidth="1"/>
+    <col min="4" max="5" width="11.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.25" style="1" customWidth="1"/>
+    <col min="8" max="9" width="12.5" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.25" style="1" customWidth="1"/>
+    <col min="12" max="12" width="13.625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="11.25" style="1" customWidth="1"/>
+    <col min="14" max="14" width="9.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.125" style="1" customWidth="1"/>
+    <col min="20" max="20" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B2" s="24" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="141.75" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="55" t="s">
+        <v>142</v>
+      </c>
+      <c r="D3" s="55" t="s">
+        <v>143</v>
+      </c>
+      <c r="E3" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="F3" s="56" t="s">
+        <v>145</v>
+      </c>
+      <c r="G3" s="56" t="s">
+        <v>146</v>
+      </c>
+      <c r="H3" s="56" t="s">
+        <v>147</v>
+      </c>
+      <c r="I3" s="56" t="s">
+        <v>148</v>
+      </c>
+      <c r="J3" s="56" t="s">
+        <v>149</v>
+      </c>
+      <c r="K3" s="56" t="s">
+        <v>150</v>
+      </c>
+      <c r="L3" s="56" t="s">
+        <v>151</v>
+      </c>
+      <c r="M3" s="56" t="s">
+        <v>152</v>
+      </c>
+      <c r="N3" s="55" t="s">
+        <v>142</v>
+      </c>
+      <c r="O3" s="56" t="s">
+        <v>153</v>
+      </c>
+      <c r="P3" s="56" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q3" s="56" t="s">
+        <v>155</v>
+      </c>
+      <c r="R3" s="56" t="s">
+        <v>156</v>
+      </c>
+      <c r="S3" s="56" t="s">
+        <v>157</v>
+      </c>
+      <c r="T3" s="56" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B5" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B6" s="5"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="L7" s="24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="H8" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M8" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="R8" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="S8" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="4">
+        <v>45170</v>
+      </c>
+      <c r="D11" s="4">
+        <v>45170</v>
+      </c>
+      <c r="E11" s="4">
+        <v>45117</v>
+      </c>
+      <c r="F11" s="4">
+        <v>45170</v>
+      </c>
+      <c r="G11" s="4">
+        <v>44979</v>
+      </c>
+      <c r="H11" s="4">
+        <v>44969</v>
+      </c>
+      <c r="I11" s="4">
+        <v>45229</v>
+      </c>
+      <c r="J11" s="4">
+        <v>45028</v>
+      </c>
+      <c r="K11" s="4">
+        <v>45184</v>
+      </c>
+      <c r="L11" s="4">
+        <v>44993</v>
+      </c>
+      <c r="M11" s="4">
+        <v>44969</v>
+      </c>
+      <c r="N11" s="4">
+        <v>45105</v>
+      </c>
+      <c r="O11" s="4">
+        <v>44986</v>
+      </c>
+      <c r="P11" s="4">
+        <v>45161</v>
+      </c>
+      <c r="Q11" s="4">
+        <v>44983</v>
+      </c>
+      <c r="R11" s="4">
+        <v>45017</v>
+      </c>
+      <c r="S11" s="4">
+        <v>45184</v>
+      </c>
+      <c r="T11" s="4">
+        <v>45139</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="4">
+        <v>45230</v>
+      </c>
+      <c r="D12" s="4">
+        <v>45230</v>
+      </c>
+      <c r="E12" s="4">
+        <v>45240</v>
+      </c>
+      <c r="F12" s="4">
+        <v>45535</v>
+      </c>
+      <c r="G12" s="4">
+        <v>45343</v>
+      </c>
+      <c r="H12" s="4">
+        <v>45332</v>
+      </c>
+      <c r="I12" s="4">
+        <v>45291</v>
+      </c>
+      <c r="J12" s="4">
+        <v>45210</v>
+      </c>
+      <c r="K12" s="4">
+        <v>45366</v>
+      </c>
+      <c r="L12" s="4">
+        <v>45176</v>
+      </c>
+      <c r="M12" s="4">
+        <v>45334</v>
+      </c>
+      <c r="N12" s="4">
+        <v>45470</v>
+      </c>
+      <c r="O12" s="4">
+        <v>45350</v>
+      </c>
+      <c r="P12" s="4">
+        <v>45526</v>
+      </c>
+      <c r="Q12" s="4">
+        <v>45348</v>
+      </c>
+      <c r="R12" s="4">
+        <v>45107</v>
+      </c>
+      <c r="S12" s="4">
+        <v>45549</v>
+      </c>
+      <c r="T12" s="4">
+        <v>45353</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="3">
+        <v>2500</v>
+      </c>
+      <c r="D13" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E13" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F13" s="3">
+        <v>2178</v>
+      </c>
+      <c r="G13" s="3">
+        <v>2520</v>
+      </c>
+      <c r="H13" s="3">
+        <v>1600</v>
+      </c>
+      <c r="I13" s="3">
+        <v>1500</v>
+      </c>
+      <c r="J13" s="3">
+        <v>2400</v>
+      </c>
+      <c r="K13" s="3">
+        <v>1330.27</v>
+      </c>
+      <c r="L13" s="3">
+        <v>1330.27</v>
+      </c>
+      <c r="M13" s="3">
+        <v>1470.88</v>
+      </c>
+      <c r="N13" s="3">
+        <v>1700</v>
+      </c>
+      <c r="O13" s="3">
+        <v>3000</v>
+      </c>
+      <c r="P13" s="3">
+        <v>2300</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>2054</v>
+      </c>
+      <c r="R13" s="3">
+        <v>2133.67</v>
+      </c>
+      <c r="S13" s="3">
+        <v>2500</v>
+      </c>
+      <c r="T13" s="3">
+        <v>1928.92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="3">
+        <v>200</v>
+      </c>
+      <c r="D14" s="3">
+        <v>200</v>
+      </c>
+      <c r="E14" s="3">
+        <v>200</v>
+      </c>
+      <c r="F14" s="3">
+        <v>421.44</v>
+      </c>
+      <c r="G14" s="3">
+        <v>608.33000000000004</v>
+      </c>
+      <c r="H14" s="3">
+        <v>389.76</v>
+      </c>
+      <c r="I14" s="3">
+        <v>300.25</v>
+      </c>
+      <c r="J14" s="3">
+        <v>624</v>
+      </c>
+      <c r="K14" s="3">
+        <v>656.04</v>
+      </c>
+      <c r="L14" s="3">
+        <v>638.12</v>
+      </c>
+      <c r="M14" s="3">
+        <v>614.11</v>
+      </c>
+      <c r="N14" s="3">
+        <v>378.6</v>
+      </c>
+      <c r="O14" s="3">
+        <v>621</v>
+      </c>
+      <c r="P14" s="3">
+        <v>430</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>370.66</v>
+      </c>
+      <c r="R14" s="3">
+        <v>576.35</v>
+      </c>
+      <c r="S14" s="3">
+        <v>562</v>
+      </c>
+      <c r="T14" s="3">
+        <v>560.94000000000005</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="C15" s="3">
+        <v>0</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3">
+        <v>149</v>
+      </c>
+      <c r="H15" s="3">
+        <v>160</v>
+      </c>
+      <c r="I15" s="3">
+        <v>50.25</v>
+      </c>
+      <c r="J15" s="3">
+        <v>890</v>
+      </c>
+      <c r="K15" s="3">
+        <v>83.61</v>
+      </c>
+      <c r="L15" s="3">
+        <v>66.88</v>
+      </c>
+      <c r="M15" s="3">
+        <v>81.06</v>
+      </c>
+      <c r="N15" s="3">
+        <v>71.03</v>
+      </c>
+      <c r="O15" s="3">
+        <v>152.94</v>
+      </c>
+      <c r="P15" s="3">
+        <v>125.35</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>121.75</v>
+      </c>
+      <c r="R15" s="3">
+        <v>311.87</v>
+      </c>
+      <c r="S15" s="3">
+        <v>150</v>
+      </c>
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B16" s="7"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="2">
+        <v>1</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E17" s="2">
+        <v>1</v>
+      </c>
+      <c r="F17" s="2">
+        <v>1</v>
+      </c>
+      <c r="G17" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H17" s="2">
+        <v>1</v>
+      </c>
+      <c r="I17" s="2">
+        <v>1</v>
+      </c>
+      <c r="J17" s="2">
+        <v>1</v>
+      </c>
+      <c r="K17" s="2">
+        <v>1</v>
+      </c>
+      <c r="L17" s="2">
+        <v>1</v>
+      </c>
+      <c r="M17" s="2">
+        <v>1</v>
+      </c>
+      <c r="N17" s="2">
+        <v>1</v>
+      </c>
+      <c r="O17" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="P17" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>1</v>
+      </c>
+      <c r="R17" s="2">
+        <v>1</v>
+      </c>
+      <c r="S17" s="2">
+        <v>1</v>
+      </c>
+      <c r="T17" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="B18" s="7"/>
+    </row>
+    <row r="19" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="B19" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="F20" s="2">
+        <v>1</v>
+      </c>
+      <c r="G20" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H20" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="I20" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="J20" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="K20" s="2">
+        <v>1</v>
+      </c>
+      <c r="L20" s="2">
+        <v>1</v>
+      </c>
+      <c r="M20" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N20" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="O20" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="P20" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="Q20" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="R20" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="S20" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="T20" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13">
+        <v>0.93300000000000005</v>
+      </c>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13">
+        <v>0.8</v>
+      </c>
+      <c r="L21" s="13">
+        <v>0.8</v>
+      </c>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="13"/>
+      <c r="Q21" s="13"/>
+      <c r="R21" s="13"/>
+      <c r="S21" s="13"/>
+      <c r="T21" s="13">
+        <v>0.64049999999999996</v>
+      </c>
+      <c r="U21" s="13"/>
+      <c r="V21" s="13"/>
+      <c r="W21" s="13"/>
+      <c r="X21" s="13"/>
+      <c r="Y21" s="13"/>
+      <c r="Z21" s="13"/>
+      <c r="AA21" s="13"/>
+      <c r="AB21" s="13"/>
+      <c r="AC21" s="13"/>
+      <c r="AD21" s="13"/>
+      <c r="AE21" s="13"/>
+      <c r="AF21" s="13"/>
+      <c r="AG21" s="13"/>
+      <c r="AH21" s="13"/>
+      <c r="AI21" s="13"/>
+      <c r="AJ21" s="13"/>
+      <c r="AK21" s="13"/>
+      <c r="AL21" s="13"/>
+      <c r="AM21" s="13"/>
+      <c r="AN21" s="13"/>
+      <c r="AO21" s="13"/>
+      <c r="AP21" s="13"/>
+      <c r="AQ21" s="13"/>
+      <c r="AR21" s="13"/>
+      <c r="AS21" s="13"/>
+      <c r="AT21" s="13"/>
+      <c r="AU21" s="13"/>
+      <c r="AV21" s="13"/>
+    </row>
+    <row r="22" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="4">
+        <v>45170</v>
+      </c>
+      <c r="D22" s="4">
+        <v>45170</v>
+      </c>
+      <c r="E22" s="4">
+        <v>45117</v>
+      </c>
+      <c r="F22" s="4">
+        <v>45170</v>
+      </c>
+      <c r="G22" s="4">
+        <v>44979</v>
+      </c>
+      <c r="H22" s="4">
+        <v>44968</v>
+      </c>
+      <c r="I22" s="4">
+        <v>45108</v>
+      </c>
+      <c r="J22" s="4">
+        <v>45028</v>
+      </c>
+      <c r="K22" s="4">
+        <v>45184</v>
+      </c>
+      <c r="L22" s="4">
+        <v>44993</v>
+      </c>
+      <c r="M22" s="4">
+        <v>44969</v>
+      </c>
+      <c r="N22" s="4">
+        <v>45105</v>
+      </c>
+      <c r="O22" s="4">
+        <v>44986</v>
+      </c>
+      <c r="P22" s="4">
+        <v>45161</v>
+      </c>
+      <c r="Q22" s="4">
+        <v>45001</v>
+      </c>
+      <c r="R22" s="4">
+        <v>45017</v>
+      </c>
+      <c r="S22" s="4">
+        <v>45184</v>
+      </c>
+      <c r="T22" s="4">
+        <v>45139</v>
+      </c>
+    </row>
+    <row r="23" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="4">
+        <v>45230</v>
+      </c>
+      <c r="D23" s="4">
+        <v>45230</v>
+      </c>
+      <c r="E23" s="4">
+        <v>45179</v>
+      </c>
+      <c r="F23" s="4">
+        <v>45535</v>
+      </c>
+      <c r="G23" s="4">
+        <v>45343</v>
+      </c>
+      <c r="H23" s="4">
+        <v>45332</v>
+      </c>
+      <c r="I23" s="4">
+        <v>45291</v>
+      </c>
+      <c r="J23" s="4">
+        <v>45210</v>
+      </c>
+      <c r="K23" s="4">
+        <v>45365</v>
+      </c>
+      <c r="L23" s="4">
+        <v>45176</v>
+      </c>
+      <c r="M23" s="4">
+        <v>45334</v>
+      </c>
+      <c r="N23" s="4">
+        <v>45470</v>
+      </c>
+      <c r="O23" s="4">
+        <v>45291</v>
+      </c>
+      <c r="P23" s="4">
+        <v>45344</v>
+      </c>
+      <c r="Q23" s="4">
+        <v>45291</v>
+      </c>
+      <c r="R23" s="4">
+        <v>45107</v>
+      </c>
+      <c r="S23" s="4">
+        <v>45365</v>
+      </c>
+      <c r="T23" s="4">
+        <v>45353</v>
+      </c>
+    </row>
+    <row r="25" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="B25" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2">
+        <v>1</v>
+      </c>
+      <c r="O26" s="2"/>
+      <c r="Q26" s="2"/>
+    </row>
+    <row r="27" spans="1:48" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="L27" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="L28" s="4">
+        <v>45017</v>
+      </c>
+      <c r="O28" s="4"/>
+      <c r="P28" s="4"/>
+      <c r="Q28" s="4"/>
+    </row>
+    <row r="29" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="L29" s="4">
+        <v>45176</v>
+      </c>
+      <c r="O29" s="4"/>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="4"/>
+    </row>
+    <row r="30" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="B30" s="7"/>
+    </row>
+    <row r="32" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="I32" s="14"/>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B33" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="I33" s="3"/>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C35" s="3">
+        <f>C13+C14+C15</f>
+        <v>2700</v>
+      </c>
+      <c r="D35" s="3">
+        <f t="shared" ref="D35:T35" si="0">D13+D14+D15</f>
+        <v>2700</v>
+      </c>
+      <c r="E35" s="3">
+        <f t="shared" si="0"/>
+        <v>3400</v>
+      </c>
+      <c r="F35" s="3">
+        <f t="shared" si="0"/>
+        <v>2599.44</v>
+      </c>
+      <c r="G35" s="3">
+        <f t="shared" si="0"/>
+        <v>3277.33</v>
+      </c>
+      <c r="H35" s="3">
+        <f t="shared" si="0"/>
+        <v>2149.7600000000002</v>
+      </c>
+      <c r="I35" s="3">
+        <f t="shared" si="0"/>
+        <v>1850.5</v>
+      </c>
+      <c r="J35" s="3">
+        <f t="shared" si="0"/>
+        <v>3914</v>
+      </c>
+      <c r="K35" s="3">
+        <f t="shared" si="0"/>
+        <v>2069.92</v>
+      </c>
+      <c r="L35" s="3">
+        <f t="shared" si="0"/>
+        <v>2035.27</v>
+      </c>
+      <c r="M35" s="3">
+        <f t="shared" si="0"/>
+        <v>2166.0500000000002</v>
+      </c>
+      <c r="N35" s="3">
+        <f t="shared" si="0"/>
+        <v>2149.63</v>
+      </c>
+      <c r="O35" s="3">
+        <f t="shared" si="0"/>
+        <v>3773.94</v>
+      </c>
+      <c r="P35" s="3">
+        <f t="shared" si="0"/>
+        <v>2855.35</v>
+      </c>
+      <c r="Q35" s="3">
+        <f t="shared" si="0"/>
+        <v>2546.41</v>
+      </c>
+      <c r="R35" s="3">
+        <f t="shared" si="0"/>
+        <v>3021.89</v>
+      </c>
+      <c r="S35" s="3">
+        <f t="shared" si="0"/>
+        <v>3212</v>
+      </c>
+      <c r="T35" s="3">
+        <f t="shared" si="0"/>
+        <v>2489.86</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C36" s="3">
+        <f>C17*C35</f>
+        <v>2700</v>
+      </c>
+      <c r="D36" s="3">
+        <f t="shared" ref="D36:T36" si="1">D17*D35</f>
+        <v>1350</v>
+      </c>
+      <c r="E36" s="3">
+        <f t="shared" si="1"/>
+        <v>3400</v>
+      </c>
+      <c r="F36" s="3">
+        <f t="shared" si="1"/>
+        <v>2599.44</v>
+      </c>
+      <c r="G36" s="3">
+        <f t="shared" si="1"/>
+        <v>1638.665</v>
+      </c>
+      <c r="H36" s="3">
+        <f t="shared" si="1"/>
+        <v>2149.7600000000002</v>
+      </c>
+      <c r="I36" s="3">
+        <f t="shared" si="1"/>
+        <v>1850.5</v>
+      </c>
+      <c r="J36" s="3">
+        <f t="shared" si="1"/>
+        <v>3914</v>
+      </c>
+      <c r="K36" s="3">
+        <f t="shared" si="1"/>
+        <v>2069.92</v>
+      </c>
+      <c r="L36" s="3">
+        <f t="shared" si="1"/>
+        <v>2035.27</v>
+      </c>
+      <c r="M36" s="3">
+        <f t="shared" si="1"/>
+        <v>2166.0500000000002</v>
+      </c>
+      <c r="N36" s="3">
+        <f t="shared" si="1"/>
+        <v>2149.63</v>
+      </c>
+      <c r="O36" s="3">
+        <f t="shared" si="1"/>
+        <v>1886.97</v>
+      </c>
+      <c r="P36" s="3">
+        <f t="shared" si="1"/>
+        <v>2855.35</v>
+      </c>
+      <c r="Q36" s="3">
+        <f t="shared" si="1"/>
+        <v>2546.41</v>
+      </c>
+      <c r="R36" s="3">
+        <f t="shared" si="1"/>
+        <v>3021.89</v>
+      </c>
+      <c r="S36" s="3">
+        <f t="shared" si="1"/>
+        <v>3212</v>
+      </c>
+      <c r="T36" s="3">
+        <f t="shared" si="1"/>
+        <v>2489.86</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B37" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="C37" s="3">
+        <f>IFERROR(C13/C21*65%*1.23,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D37" s="3">
+        <f t="shared" ref="D37:T37" si="2">IFERROR(D13/D21*65%*1.23,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E37" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F37" s="3">
+        <f t="shared" si="2"/>
+        <v>1866.3569131832799</v>
+      </c>
+      <c r="G37" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H37" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I37" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J37" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K37" s="3">
+        <f t="shared" si="2"/>
+        <v>1329.43858125</v>
+      </c>
+      <c r="L37" s="3">
+        <f t="shared" si="2"/>
+        <v>1329.43858125</v>
+      </c>
+      <c r="M37" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N37" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O37" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P37" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q37" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R37" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S37" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T37" s="3">
+        <f t="shared" si="2"/>
+        <v>2407.761967213115</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B38" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B39" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C40" s="3">
+        <f t="shared" ref="C40:T40" si="3">IF(C20=50%,MIN(50%*C13,Max_50),IF(C20=70%,MIN(70%*C13,max_70),IF(C20=100%,MIN(100%*C37,Max_100),"")))</f>
+        <v>1750</v>
+      </c>
+      <c r="D40" s="3">
+        <f t="shared" si="3"/>
+        <v>1250</v>
+      </c>
+      <c r="E40" s="3">
+        <f t="shared" si="3"/>
+        <v>1770</v>
+      </c>
+      <c r="F40" s="3">
+        <f t="shared" si="3"/>
+        <v>1866.3569131832799</v>
+      </c>
+      <c r="G40" s="3">
+        <f t="shared" si="3"/>
+        <v>1260</v>
+      </c>
+      <c r="H40" s="3">
+        <f t="shared" si="3"/>
+        <v>1120</v>
+      </c>
+      <c r="I40" s="3">
+        <f t="shared" si="3"/>
+        <v>750</v>
+      </c>
+      <c r="J40" s="3">
+        <f t="shared" si="3"/>
+        <v>1680</v>
+      </c>
+      <c r="K40" s="3">
+        <f t="shared" si="3"/>
+        <v>1329.43858125</v>
+      </c>
+      <c r="L40" s="3">
+        <f t="shared" si="3"/>
+        <v>1329.43858125</v>
+      </c>
+      <c r="M40" s="3">
+        <f t="shared" si="3"/>
+        <v>735.44</v>
+      </c>
+      <c r="N40" s="3">
+        <f t="shared" si="3"/>
+        <v>1190</v>
+      </c>
+      <c r="O40" s="3">
+        <f t="shared" si="3"/>
+        <v>1260</v>
+      </c>
+      <c r="P40" s="3">
+        <f t="shared" si="3"/>
+        <v>1610</v>
+      </c>
+      <c r="Q40" s="3">
+        <f t="shared" si="3"/>
+        <v>1027</v>
+      </c>
+      <c r="R40" s="3">
+        <f t="shared" si="3"/>
+        <v>1493.569</v>
+      </c>
+      <c r="S40" s="3">
+        <f t="shared" si="3"/>
+        <v>1750</v>
+      </c>
+      <c r="T40" s="3">
+        <f t="shared" si="3"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B42" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C43" s="4">
+        <v>45170</v>
+      </c>
+      <c r="D43" s="4">
+        <v>45170</v>
+      </c>
+      <c r="E43" s="4">
+        <v>45117</v>
+      </c>
+      <c r="F43" s="4">
+        <v>45170</v>
+      </c>
+      <c r="G43" s="4">
+        <v>44979</v>
+      </c>
+      <c r="H43" s="4">
+        <v>44969</v>
+      </c>
+      <c r="I43" s="4">
+        <v>45229</v>
+      </c>
+      <c r="J43" s="4">
+        <v>45028</v>
+      </c>
+      <c r="K43" s="4">
+        <v>45184</v>
+      </c>
+      <c r="L43" s="4">
+        <v>44993</v>
+      </c>
+      <c r="M43" s="4">
+        <v>44969</v>
+      </c>
+      <c r="N43" s="4">
+        <v>45105</v>
+      </c>
+      <c r="O43" s="4">
+        <v>44986</v>
+      </c>
+      <c r="P43" s="4">
+        <v>45161</v>
+      </c>
+      <c r="Q43" s="4">
+        <v>45001</v>
+      </c>
+      <c r="R43" s="4">
+        <v>45017</v>
+      </c>
+      <c r="S43" s="4">
+        <v>45184</v>
+      </c>
+      <c r="T43" s="4">
+        <v>45139</v>
+      </c>
+      <c r="U43" s="4">
+        <v>45054</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C44" s="4">
+        <v>45230</v>
+      </c>
+      <c r="D44" s="4">
+        <v>45230</v>
+      </c>
+      <c r="E44" s="4">
+        <v>45179</v>
+      </c>
+      <c r="F44" s="4">
+        <v>45535</v>
+      </c>
+      <c r="G44" s="4">
+        <v>45343</v>
+      </c>
+      <c r="H44" s="4">
+        <v>45332</v>
+      </c>
+      <c r="I44" s="4">
+        <v>45291</v>
+      </c>
+      <c r="J44" s="4">
+        <v>45210</v>
+      </c>
+      <c r="K44" s="4">
+        <v>45365</v>
+      </c>
+      <c r="L44" s="4">
+        <v>45016</v>
+      </c>
+      <c r="M44" s="4">
+        <v>45334</v>
+      </c>
+      <c r="N44" s="4">
+        <v>45470</v>
+      </c>
+      <c r="O44" s="4">
+        <v>45291</v>
+      </c>
+      <c r="P44" s="4">
+        <v>45344</v>
+      </c>
+      <c r="Q44" s="4">
+        <v>45291</v>
+      </c>
+      <c r="R44" s="4">
+        <v>45107</v>
+      </c>
+      <c r="S44" s="4">
+        <v>45365</v>
+      </c>
+      <c r="T44" s="4">
+        <v>45353</v>
+      </c>
+      <c r="U44" s="4">
+        <v>45054</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C45" s="11">
+        <f t="shared" ref="C45:E45" si="4">ROUND((DAYS360(C43,C44,TRUE) +1) / 30, 2)</f>
+        <v>2</v>
+      </c>
+      <c r="D45" s="11">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="E45" s="11">
+        <f t="shared" si="4"/>
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="F45" s="11">
+        <f t="shared" ref="F45:T45" si="5">ROUND((DAYS360(F43,F44,TRUE) +1) / 30, 2)</f>
+        <v>12</v>
+      </c>
+      <c r="G45" s="11">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="H45" s="11">
+        <f t="shared" si="5"/>
+        <v>11.97</v>
+      </c>
+      <c r="I45" s="11">
+        <f t="shared" si="5"/>
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="J45" s="11">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="K45" s="11">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="L45" s="11">
+        <f t="shared" si="5"/>
+        <v>0.77</v>
+      </c>
+      <c r="M45" s="11">
+        <f t="shared" si="5"/>
+        <v>12.03</v>
+      </c>
+      <c r="N45" s="11">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="O45" s="11">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="P45" s="11">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="Q45" s="11">
+        <f t="shared" si="5"/>
+        <v>9.5</v>
+      </c>
+      <c r="R45" s="11">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="S45" s="11">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="T45" s="11">
+        <f t="shared" si="5"/>
+        <v>7.07</v>
+      </c>
+      <c r="U45" s="44">
+        <f>ROUND((DAYS360(U43,U44,TRUE) +1) / 30, 9)</f>
+        <v>3.3333333E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C46" s="3">
+        <f t="shared" ref="C46:T46" si="6">ROUND(MAX(MIN(C36-C40,HEL_Lisä_Max),0 ),0)</f>
+        <v>800</v>
+      </c>
+      <c r="D46" s="3">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="E46" s="3">
+        <f t="shared" si="6"/>
+        <v>800</v>
+      </c>
+      <c r="F46" s="3">
+        <f t="shared" si="6"/>
+        <v>733</v>
+      </c>
+      <c r="G46" s="3">
+        <f t="shared" si="6"/>
+        <v>379</v>
+      </c>
+      <c r="H46" s="3">
+        <f t="shared" si="6"/>
+        <v>800</v>
+      </c>
+      <c r="I46" s="3">
+        <f t="shared" si="6"/>
+        <v>800</v>
+      </c>
+      <c r="J46" s="3">
+        <f t="shared" si="6"/>
+        <v>800</v>
+      </c>
+      <c r="K46" s="3">
+        <f t="shared" si="6"/>
+        <v>740</v>
+      </c>
+      <c r="L46" s="3">
+        <v>666</v>
+      </c>
+      <c r="M46" s="3">
+        <f t="shared" si="6"/>
+        <v>800</v>
+      </c>
+      <c r="N46" s="3">
+        <f t="shared" si="6"/>
+        <v>800</v>
+      </c>
+      <c r="O46" s="3">
+        <f t="shared" si="6"/>
+        <v>627</v>
+      </c>
+      <c r="P46" s="3">
+        <f t="shared" si="6"/>
+        <v>800</v>
+      </c>
+      <c r="Q46" s="3">
+        <f t="shared" si="6"/>
+        <v>800</v>
+      </c>
+      <c r="R46" s="3">
+        <f t="shared" si="6"/>
+        <v>800</v>
+      </c>
+      <c r="S46" s="3">
+        <f t="shared" si="6"/>
+        <v>800</v>
+      </c>
+      <c r="T46" s="3">
+        <f t="shared" si="6"/>
+        <v>470</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C47" s="3">
+        <f>ROUND(C45*C46,0)</f>
+        <v>1600</v>
+      </c>
+      <c r="D47" s="3">
+        <f>ROUND(D45*D46,0)</f>
+        <v>200</v>
+      </c>
+      <c r="E47" s="3">
+        <f t="shared" ref="E47:T47" si="7">ROUND(E45*E46,0)</f>
+        <v>1624</v>
+      </c>
+      <c r="F47" s="3">
+        <f t="shared" si="7"/>
+        <v>8796</v>
+      </c>
+      <c r="G47" s="3">
+        <f t="shared" si="7"/>
+        <v>4548</v>
+      </c>
+      <c r="H47" s="3">
+        <f t="shared" si="7"/>
+        <v>9576</v>
+      </c>
+      <c r="I47" s="3">
+        <f t="shared" si="7"/>
+        <v>1624</v>
+      </c>
+      <c r="J47" s="3">
+        <f t="shared" si="7"/>
+        <v>4800</v>
+      </c>
+      <c r="K47" s="3">
+        <f t="shared" si="7"/>
+        <v>4440</v>
+      </c>
+      <c r="L47" s="3">
+        <f t="shared" si="7"/>
+        <v>513</v>
+      </c>
+      <c r="M47" s="3">
+        <f t="shared" si="7"/>
+        <v>9624</v>
+      </c>
+      <c r="N47" s="3">
+        <f t="shared" si="7"/>
+        <v>9600</v>
+      </c>
+      <c r="O47" s="3">
+        <f t="shared" si="7"/>
+        <v>6270</v>
+      </c>
+      <c r="P47" s="3">
+        <f t="shared" si="7"/>
+        <v>4800</v>
+      </c>
+      <c r="Q47" s="3">
+        <f t="shared" si="7"/>
+        <v>7600</v>
+      </c>
+      <c r="R47" s="3">
+        <f t="shared" si="7"/>
+        <v>2400</v>
+      </c>
+      <c r="S47" s="3">
+        <f t="shared" si="7"/>
+        <v>4800</v>
+      </c>
+      <c r="T47" s="3">
+        <f t="shared" si="7"/>
+        <v>3323</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B49" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B51" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3">
+        <f>E30*E48</f>
+        <v>0</v>
+      </c>
+      <c r="K52" s="3">
+        <f>K30*K48</f>
+        <v>0</v>
+      </c>
+      <c r="L52" s="1">
+        <v>1617.31</v>
+      </c>
+      <c r="O52" s="3">
+        <f>O30*O48</f>
+        <v>0</v>
+      </c>
+      <c r="P52" s="3">
+        <f>P30*P48</f>
+        <v>0</v>
+      </c>
+      <c r="Q52" s="3">
+        <f>Q30*Q48</f>
+        <v>0</v>
+      </c>
+      <c r="S52" s="3">
+        <f>S30*S48</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B54" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4">
+        <v>45180</v>
+      </c>
+      <c r="K55" s="4">
+        <v>45366</v>
+      </c>
+      <c r="L55" s="52">
+        <v>45017</v>
+      </c>
+      <c r="O55" s="4">
+        <v>45292</v>
+      </c>
+      <c r="P55" s="4">
+        <v>45345</v>
+      </c>
+      <c r="Q55" s="4">
+        <v>45292</v>
+      </c>
+      <c r="S55" s="4">
+        <v>45366</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4">
+        <v>45240</v>
+      </c>
+      <c r="K56" s="4">
+        <v>45366</v>
+      </c>
+      <c r="L56" s="52">
+        <v>45176</v>
+      </c>
+      <c r="O56" s="4">
+        <v>45350</v>
+      </c>
+      <c r="P56" s="4">
+        <v>45526</v>
+      </c>
+      <c r="Q56" s="4">
+        <v>45348</v>
+      </c>
+      <c r="S56" s="4">
+        <v>45549</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="11">
+        <f t="shared" ref="E57" si="8">ROUND((DAYS360(E55,E56,TRUE) +1) / 30, 2)</f>
+        <v>2</v>
+      </c>
+      <c r="K57" s="11">
+        <f t="shared" ref="K57" si="9">ROUND((DAYS360(K55,K56,TRUE) +1) / 30, 2)</f>
+        <v>0.03</v>
+      </c>
+      <c r="L57" s="53">
+        <v>5.23</v>
+      </c>
+      <c r="O57" s="11">
+        <f t="shared" ref="O57:Q57" si="10">ROUND((DAYS360(O55,O56,TRUE) +1) / 30, 2)</f>
+        <v>1.93</v>
+      </c>
+      <c r="P57" s="11">
+        <f t="shared" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="Q57" s="11">
+        <f t="shared" si="10"/>
+        <v>1.87</v>
+      </c>
+      <c r="S57" s="11">
+        <f t="shared" ref="S57" si="11">ROUND((DAYS360(S55,S56,TRUE) +1) / 30, 2)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3">
+        <f>ROUND(MAX(MIN(E36-E52,HEL_Lisä_Max),0 ),0)</f>
+        <v>800</v>
+      </c>
+      <c r="K58" s="3">
+        <f>ROUND(MAX(MIN(K36-K52,HEL_Lisä_Max),0 ),0)</f>
+        <v>800</v>
+      </c>
+      <c r="L58" s="54">
+        <f>ROUND(MAX(MIN(L36-L52,HEL_Lisä_Max),0 ),0)</f>
+        <v>418</v>
+      </c>
+      <c r="O58" s="3">
+        <f>ROUND(MAX(MIN(O36-O52,HEL_Lisä_Max),0 ),0)</f>
+        <v>800</v>
+      </c>
+      <c r="P58" s="3">
+        <f>ROUND(MAX(MIN(P36-P52,HEL_Lisä_Max),0 ),0)</f>
+        <v>800</v>
+      </c>
+      <c r="Q58" s="3">
+        <f>ROUND(MAX(MIN(Q36-Q52,HEL_Lisä_Max),0 ),0)</f>
+        <v>800</v>
+      </c>
+      <c r="S58" s="3">
+        <f>ROUND(MAX(MIN(S36-S52,HEL_Lisä_Max),0 ),0)</f>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3">
+        <f>ROUND(E57*E58,0)</f>
+        <v>1600</v>
+      </c>
+      <c r="K59" s="3">
+        <f>ROUND(K57*K58,0)</f>
+        <v>24</v>
+      </c>
+      <c r="L59" s="54">
+        <f>ROUND(L57*L58,0)</f>
+        <v>2186</v>
+      </c>
+      <c r="O59" s="3">
+        <f>ROUND(O57*O58,0)</f>
+        <v>1544</v>
+      </c>
+      <c r="P59" s="3">
+        <f>ROUND(P57*P58,0)</f>
+        <v>4800</v>
+      </c>
+      <c r="Q59" s="3">
+        <f>ROUND(Q57*Q58,0)</f>
+        <v>1496</v>
+      </c>
+      <c r="S59" s="3">
+        <f>ROUND(S57*S58,0)</f>
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B61" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+      <c r="L61" s="1">
+        <v>4480</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B63" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="B65" s="50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C65" s="51">
+        <f>C47+C59</f>
+        <v>1600</v>
+      </c>
+      <c r="D65" s="51">
+        <f>D47+D59</f>
+        <v>200</v>
+      </c>
+      <c r="E65" s="51">
+        <f>E47+E59</f>
+        <v>3224</v>
+      </c>
+      <c r="F65" s="51">
+        <f t="shared" ref="F65:T65" si="12">F47+F59</f>
+        <v>8796</v>
+      </c>
+      <c r="G65" s="51">
+        <f t="shared" si="12"/>
+        <v>4548</v>
+      </c>
+      <c r="H65" s="51">
+        <f t="shared" si="12"/>
+        <v>9576</v>
+      </c>
+      <c r="I65" s="51">
+        <f t="shared" si="12"/>
+        <v>1624</v>
+      </c>
+      <c r="J65" s="51">
+        <f t="shared" si="12"/>
+        <v>4800</v>
+      </c>
+      <c r="K65" s="51">
+        <f t="shared" si="12"/>
+        <v>4464</v>
+      </c>
+      <c r="L65" s="51">
+        <f t="shared" si="12"/>
+        <v>2699</v>
+      </c>
+      <c r="M65" s="51">
+        <f t="shared" si="12"/>
+        <v>9624</v>
+      </c>
+      <c r="N65" s="51">
+        <f t="shared" si="12"/>
+        <v>9600</v>
+      </c>
+      <c r="O65" s="51">
+        <f t="shared" si="12"/>
+        <v>7814</v>
+      </c>
+      <c r="P65" s="51">
+        <f t="shared" si="12"/>
+        <v>9600</v>
+      </c>
+      <c r="Q65" s="51">
+        <f t="shared" si="12"/>
+        <v>9096</v>
+      </c>
+      <c r="R65" s="51">
+        <f t="shared" si="12"/>
+        <v>2400</v>
+      </c>
+      <c r="S65" s="51">
+        <f t="shared" si="12"/>
+        <v>9600</v>
+      </c>
+      <c r="T65" s="51">
+        <f t="shared" si="12"/>
+        <v>3323</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C9:M9" xr:uid="{74C3B7D4-7F4C-4D7E-89EB-C1308069A366}">
+      <formula1>"kyllä,ei"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A211DEA9-F040-44E7-BA9E-24C57EE0111E}">
   <dimension ref="A1:AV67"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="49.875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="37.625" style="1" customWidth="1"/>
@@ -1128,12 +4513,12 @@
     <col min="21" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
@@ -1147,15 +4532,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B8" s="5"/>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -1166,7 +4551,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -1228,7 +4613,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
@@ -1290,7 +4675,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>16</v>
       </c>
@@ -1352,7 +4737,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>19</v>
       </c>
@@ -1414,7 +4799,7 @@
         <v>44409</v>
       </c>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>21</v>
       </c>
@@ -1476,7 +4861,7 @@
         <v>44622</v>
       </c>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
@@ -1538,7 +4923,7 @@
         <v>1928.92</v>
       </c>
     </row>
-    <row r="16" spans="1:20">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
@@ -1600,7 +4985,7 @@
         <v>560.94000000000005</v>
       </c>
     </row>
-    <row r="17" spans="1:48">
+    <row r="17" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>27</v>
       </c>
@@ -1662,7 +5047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:48">
+    <row r="18" spans="1:48" x14ac:dyDescent="0.25">
       <c r="B18" s="7"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -1676,7 +5061,7 @@
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
     </row>
-    <row r="19" spans="1:48">
+    <row r="19" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>29</v>
       </c>
@@ -1738,15 +5123,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:48">
+    <row r="20" spans="1:48" x14ac:dyDescent="0.25">
       <c r="B20" s="7"/>
     </row>
-    <row r="21" spans="1:48">
+    <row r="21" spans="1:48" x14ac:dyDescent="0.25">
       <c r="B21" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:48">
+    <row r="22" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>32</v>
       </c>
@@ -1808,7 +5193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:48">
+    <row r="23" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>34</v>
       </c>
@@ -1870,7 +5255,7 @@
       <c r="AU23" s="13"/>
       <c r="AV23" s="13"/>
     </row>
-    <row r="24" spans="1:48">
+    <row r="24" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>36</v>
       </c>
@@ -1932,7 +5317,7 @@
         <v>44409</v>
       </c>
     </row>
-    <row r="25" spans="1:48">
+    <row r="25" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>38</v>
       </c>
@@ -1994,12 +5379,12 @@
         <v>44622</v>
       </c>
     </row>
-    <row r="27" spans="1:48">
+    <row r="27" spans="1:48" x14ac:dyDescent="0.25">
       <c r="B27" s="6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:48">
+    <row r="28" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>41</v>
       </c>
@@ -2022,7 +5407,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="29" spans="1:48" s="13" customFormat="1">
+    <row r="29" spans="1:48" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>42</v>
       </c>
@@ -2033,7 +5418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:48">
+    <row r="30" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>43</v>
       </c>
@@ -2057,7 +5442,7 @@
         <v>44562</v>
       </c>
     </row>
-    <row r="31" spans="1:48">
+    <row r="31" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>44</v>
       </c>
@@ -2081,19 +5466,19 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="32" spans="1:48">
+    <row r="32" spans="1:48" x14ac:dyDescent="0.25">
       <c r="B32" s="7"/>
     </row>
-    <row r="34" spans="1:20">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="I34" s="14"/>
     </row>
-    <row r="35" spans="1:20">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B35" s="5" t="s">
         <v>45</v>
       </c>
       <c r="I35" s="3"/>
     </row>
-    <row r="37" spans="1:20">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>46</v>
       </c>
@@ -2155,7 +5540,7 @@
         <v>2489.86</v>
       </c>
     </row>
-    <row r="38" spans="1:20">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>48</v>
       </c>
@@ -2217,17 +5602,17 @@
         <v>2489.86</v>
       </c>
     </row>
-    <row r="40" spans="1:20">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B40" s="6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="41" spans="1:20">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B41" s="8" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="42" spans="1:20">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>52</v>
       </c>
@@ -2292,12 +5677,12 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="44" spans="1:20">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B44" s="7" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="45" spans="1:20">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>55</v>
       </c>
@@ -2359,7 +5744,7 @@
         <v>44409</v>
       </c>
     </row>
-    <row r="46" spans="1:20">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>57</v>
       </c>
@@ -2421,7 +5806,7 @@
         <v>44622</v>
       </c>
     </row>
-    <row r="47" spans="1:20">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>59</v>
       </c>
@@ -2487,7 +5872,7 @@
         <v>7.07</v>
       </c>
     </row>
-    <row r="48" spans="1:20">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>61</v>
       </c>
@@ -2551,7 +5936,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="49" spans="1:20">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>63</v>
       </c>
@@ -2609,12 +5994,12 @@
         <v>4876</v>
       </c>
     </row>
-    <row r="50" spans="1:20">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
     </row>
-    <row r="51" spans="1:20">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B51" s="1" t="s">
         <v>65</v>
       </c>
@@ -2622,17 +6007,17 @@
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
     </row>
-    <row r="52" spans="1:20">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
     </row>
-    <row r="53" spans="1:20">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B53" s="8" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="54" spans="1:20">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>66</v>
       </c>
@@ -2652,12 +6037,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:20">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B56" s="7" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="57" spans="1:20">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>67</v>
       </c>
@@ -2679,7 +6064,7 @@
         <v>44635</v>
       </c>
     </row>
-    <row r="58" spans="1:20">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>68</v>
       </c>
@@ -2701,7 +6086,7 @@
         <v>44818</v>
       </c>
     </row>
-    <row r="59" spans="1:20">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>69</v>
       </c>
@@ -2724,7 +6109,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:20">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>70</v>
       </c>
@@ -2746,7 +6131,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="61" spans="1:20">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>71</v>
       </c>
@@ -2769,12 +6154,12 @@
         <v>4800</v>
       </c>
     </row>
-    <row r="62" spans="1:20">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
     </row>
-    <row r="63" spans="1:20">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B63" s="1" t="s">
         <v>72</v>
       </c>
@@ -2785,12 +6170,12 @@
         <v>4480</v>
       </c>
     </row>
-    <row r="65" spans="1:20">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B65" s="5" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="67" spans="1:20">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>74</v>
       </c>
@@ -2857,7 +6242,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C11:M11" xr:uid="{74C3B7D4-7F4C-4D7E-89EB-C1308069A366}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C11:M11" xr:uid="{563E5DC6-2D2B-49F9-9C66-C99A8EBE3CFF}">
       <formula1>"kyllä,ei"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2866,7 +6251,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A670E8AE-FBF8-4578-9728-3F8C1DE2072A}">
   <dimension ref="A5:O44"/>
   <sheetViews>
@@ -2874,7 +6259,7 @@
       <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="49.875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="56.5" style="1" customWidth="1"/>
@@ -2883,7 +6268,7 @@
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
@@ -2903,16 +6288,16 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -2920,7 +6305,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -2946,7 +6331,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
@@ -2972,7 +6357,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>19</v>
       </c>
@@ -3005,7 +6390,7 @@
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
@@ -3038,7 +6423,7 @@
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>23</v>
       </c>
@@ -3070,7 +6455,7 @@
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
@@ -3102,7 +6487,7 @@
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>27</v>
       </c>
@@ -3134,7 +6519,7 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
@@ -3148,7 +6533,7 @@
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>29</v>
       </c>
@@ -3178,12 +6563,12 @@
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>81</v>
       </c>
@@ -3209,16 +6594,16 @@
         <v>500</v>
       </c>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>83</v>
       </c>
@@ -3244,7 +6629,7 @@
         <v>44466</v>
       </c>
     </row>
-    <row r="33" spans="1:15">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>84</v>
       </c>
@@ -3270,7 +6655,7 @@
         <v>44830</v>
       </c>
     </row>
-    <row r="34" spans="1:15">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>85</v>
       </c>
@@ -3301,7 +6686,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:15">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>81</v>
       </c>
@@ -3334,7 +6719,7 @@
       <c r="N35" s="3"/>
       <c r="O35" s="3"/>
     </row>
-    <row r="36" spans="1:15">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>86</v>
       </c>
@@ -3372,7 +6757,7 @@
       <c r="N36" s="3"/>
       <c r="O36" s="3"/>
     </row>
-    <row r="37" spans="1:15">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
@@ -3387,7 +6772,7 @@
       <c r="N37" s="3"/>
       <c r="O37" s="3"/>
     </row>
-    <row r="38" spans="1:15">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
@@ -3402,7 +6787,7 @@
       <c r="N38" s="3"/>
       <c r="O38" s="3"/>
     </row>
-    <row r="39" spans="1:15">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
@@ -3417,7 +6802,7 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
     </row>
-    <row r="40" spans="1:15">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B40" s="5" t="s">
         <v>73</v>
       </c>
@@ -3435,7 +6820,7 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
     </row>
-    <row r="41" spans="1:15">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
@@ -3450,7 +6835,7 @@
       <c r="N41" s="3"/>
       <c r="O41" s="3"/>
     </row>
-    <row r="42" spans="1:15">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>74</v>
       </c>
@@ -3488,7 +6873,7 @@
       <c r="N42" s="3"/>
       <c r="O42" s="3"/>
     </row>
-    <row r="43" spans="1:15">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
@@ -3503,7 +6888,7 @@
       <c r="N43" s="3"/>
       <c r="O43" s="3"/>
     </row>
-    <row r="44" spans="1:15">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
@@ -3529,15 +6914,1147 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B14CE17-365F-4CD6-A28B-9E2140F5A365}">
+  <dimension ref="A1:S85"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="14" topLeftCell="C15" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
+      <selection pane="bottomRight" activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="43" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.5" style="1" customWidth="1"/>
+    <col min="3" max="4" width="20.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.625" style="1" customWidth="1"/>
+    <col min="6" max="9" width="14.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="78.75" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="56" t="s">
+        <v>163</v>
+      </c>
+      <c r="D2" s="56" t="s">
+        <v>161</v>
+      </c>
+      <c r="E2" s="56" t="s">
+        <v>160</v>
+      </c>
+      <c r="F2" s="56" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B3" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B4" s="5"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="4">
+        <v>44961</v>
+      </c>
+      <c r="D9" s="4">
+        <v>45106</v>
+      </c>
+      <c r="E9" s="4">
+        <v>44965</v>
+      </c>
+      <c r="F9" s="4">
+        <v>45141</v>
+      </c>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="4">
+        <v>45325</v>
+      </c>
+      <c r="D10" s="4">
+        <v>45471</v>
+      </c>
+      <c r="E10" s="4">
+        <v>45329</v>
+      </c>
+      <c r="F10" s="4">
+        <v>45506</v>
+      </c>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="3">
+        <v>1752</v>
+      </c>
+      <c r="D11" s="3">
+        <v>1470.88</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1470</v>
+      </c>
+      <c r="F11" s="3">
+        <v>1250</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="3">
+        <v>460</v>
+      </c>
+      <c r="D12" s="3">
+        <v>535.12</v>
+      </c>
+      <c r="E12" s="3">
+        <v>303.7</v>
+      </c>
+      <c r="F12" s="3">
+        <v>250</v>
+      </c>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="C13" s="3">
+        <v>92.17</v>
+      </c>
+      <c r="D13" s="57">
+        <v>88.89</v>
+      </c>
+      <c r="E13" s="3">
+        <v>26.75</v>
+      </c>
+      <c r="F13" s="3">
+        <v>100</v>
+      </c>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="2">
+        <v>1</v>
+      </c>
+      <c r="D15" s="2">
+        <v>1</v>
+      </c>
+      <c r="E15" s="2">
+        <v>1</v>
+      </c>
+      <c r="F15" s="2">
+        <v>1</v>
+      </c>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B17" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+    </row>
+    <row r="19" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="4">
+        <v>44961</v>
+      </c>
+      <c r="D20" s="4">
+        <v>45195</v>
+      </c>
+      <c r="E20" s="4">
+        <v>44965</v>
+      </c>
+      <c r="F20" s="4">
+        <v>45141</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="4">
+        <v>45291</v>
+      </c>
+      <c r="D21" s="4">
+        <v>45654</v>
+      </c>
+      <c r="E21" s="4">
+        <v>45291</v>
+      </c>
+      <c r="F21" s="4">
+        <v>45324</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B23" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B29" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C30" s="3">
+        <v>100</v>
+      </c>
+      <c r="D30" s="3">
+        <v>80</v>
+      </c>
+      <c r="E30" s="3">
+        <v>200</v>
+      </c>
+      <c r="F30" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C31" s="4">
+        <v>44961</v>
+      </c>
+      <c r="D31" s="4">
+        <v>45106</v>
+      </c>
+      <c r="E31" s="4">
+        <v>44965</v>
+      </c>
+      <c r="F31" s="4">
+        <v>45078</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C32" s="4">
+        <v>45325</v>
+      </c>
+      <c r="D32" s="4">
+        <v>45471</v>
+      </c>
+      <c r="E32" s="4">
+        <v>45329</v>
+      </c>
+      <c r="F32" s="4">
+        <v>45291</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B34" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F35" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F36" s="4">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F37" s="4">
+        <v>45574</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B40" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D40" s="3"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C42" s="3">
+        <f>C11+C12+C13</f>
+        <v>2304.17</v>
+      </c>
+      <c r="D42" s="3">
+        <f>D11+D12+D13</f>
+        <v>2094.89</v>
+      </c>
+      <c r="E42" s="3">
+        <f>E11+E12+E13</f>
+        <v>1800.45</v>
+      </c>
+      <c r="F42" s="3">
+        <f>F11+F12+F13</f>
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C43" s="3">
+        <f>C15*C42</f>
+        <v>2304.17</v>
+      </c>
+      <c r="D43" s="3">
+        <f>D15*D42</f>
+        <v>2094.89</v>
+      </c>
+      <c r="E43" s="3">
+        <f>E15*E42</f>
+        <v>1800.45</v>
+      </c>
+      <c r="F43" s="3">
+        <f>F15*F42</f>
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B44" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="C44" s="3">
+        <f>IFERROR(C20/C28*65%*1.23,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D44" s="3">
+        <f>IFERROR(D20/D28*65%*1.23,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E44" s="3">
+        <f>IFERROR(E20/E28*65%*1.23,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F44" s="3">
+        <f>IFERROR(F20/F28*65%*1.23,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B45" s="43" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B46" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D46" s="3"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C47" s="3">
+        <f>IF(C18=50%,MIN(50%*C11,Max_50),IF(C18=70%,MIN(70%*C11,max_70),IF(C18=100%,MIN(100%*C44,Max_100),"")))</f>
+        <v>876</v>
+      </c>
+      <c r="D47" s="3">
+        <f>IF(D18=50%,MIN(50%*D11,Max_50),IF(D18=70%,MIN(70%*D11,max_70),IF(D18=100%,MIN(100%*D44,Max_100),"")))</f>
+        <v>735.44</v>
+      </c>
+      <c r="E47" s="3">
+        <f>IF(E18=50%,MIN(50%*E11,Max_50),IF(E18=70%,MIN(70%*E11,max_70),IF(E18=100%,MIN(100%*E44,Max_100),"")))</f>
+        <v>1029</v>
+      </c>
+      <c r="F47" s="3">
+        <f>IF(F18=50%,MIN(50%*F11,Max_50),IF(F18=70%,MIN(70%*F11,max_70),IF(F18=100%,MIN(100%*F44,Max_100),"")))</f>
+        <v>875</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B48" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="C48" s="3">
+        <f>C30</f>
+        <v>100</v>
+      </c>
+      <c r="D48" s="3">
+        <v>80</v>
+      </c>
+      <c r="E48" s="3">
+        <v>200</v>
+      </c>
+      <c r="F48" s="3">
+        <f>F30</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B50" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C51" s="4">
+        <v>44961</v>
+      </c>
+      <c r="D51" s="4">
+        <v>45106</v>
+      </c>
+      <c r="E51" s="4">
+        <v>44965</v>
+      </c>
+      <c r="F51" s="4">
+        <v>45141</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C52" s="4">
+        <v>45291</v>
+      </c>
+      <c r="D52" s="4">
+        <v>45471</v>
+      </c>
+      <c r="E52" s="4">
+        <v>45291</v>
+      </c>
+      <c r="F52" s="4">
+        <v>45291</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C53" s="11">
+        <f>ROUND((DAYS360(C51,C52,TRUE) +1) / 30,2)</f>
+        <v>10.9</v>
+      </c>
+      <c r="D53" s="11">
+        <f>ROUND((DAYS360(D51,D52,TRUE) +1) / 30,2)</f>
+        <v>12</v>
+      </c>
+      <c r="E53" s="11">
+        <f>ROUND((DAYS360(E51,E52,TRUE) +1) / 30,2)</f>
+        <v>10.77</v>
+      </c>
+      <c r="F53" s="11">
+        <f>ROUND((DAYS360(F51,F52,TRUE) +1) / 30,2)</f>
+        <v>4.93</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C54" s="3">
+        <f>ROUND(MAX(MIN(C43-C47-C30,HEL_Lisä_Max),0 ),0)</f>
+        <v>800</v>
+      </c>
+      <c r="D54" s="3">
+        <f>ROUND(MAX(MIN(D43-D47-D48,HEL_Lisä_Max),0 ),0)</f>
+        <v>800</v>
+      </c>
+      <c r="E54" s="3">
+        <f>ROUND(MAX(MIN(E43-E47-E48,HEL_Lisä_Max),0 ),0)</f>
+        <v>571</v>
+      </c>
+      <c r="F54" s="3">
+        <f>ROUND(MAX(MIN(F43-F47-F48,HEL_Lisä_Max),0 ),0)</f>
+        <v>625</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C55" s="3">
+        <f>ROUND(C54*C53,0)</f>
+        <v>8720</v>
+      </c>
+      <c r="D55" s="3">
+        <f>ROUND(D54*D53,0)</f>
+        <v>9600</v>
+      </c>
+      <c r="E55" s="3">
+        <f>ROUND(E54*E53,0)</f>
+        <v>6150</v>
+      </c>
+      <c r="F55" s="3">
+        <f>ROUND(F54*F53,0)</f>
+        <v>3081</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B57" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B59" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3">
+        <v>0</v>
+      </c>
+      <c r="F60" s="3">
+        <f>F47</f>
+        <v>875</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C61" s="3">
+        <f>C48</f>
+        <v>100</v>
+      </c>
+      <c r="E61" s="3">
+        <f>E48</f>
+        <v>200</v>
+      </c>
+      <c r="F61" s="3">
+        <f>F35</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B62" s="7"/>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B63" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C64" s="4">
+        <v>45292</v>
+      </c>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4">
+        <v>45292</v>
+      </c>
+      <c r="F64" s="4">
+        <v>45292</v>
+      </c>
+      <c r="L64" s="4"/>
+      <c r="P64" s="4"/>
+      <c r="S64" s="4"/>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C65" s="4">
+        <v>45325</v>
+      </c>
+      <c r="D65" s="4"/>
+      <c r="E65" s="4">
+        <v>45329</v>
+      </c>
+      <c r="F65" s="4">
+        <v>45324</v>
+      </c>
+      <c r="L65" s="4"/>
+      <c r="P65" s="4"/>
+      <c r="S65" s="4"/>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B66" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C66" s="11">
+        <f>ROUND((DAYS360(C64,C65,TRUE) +1) / 30,2)</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D66" s="4"/>
+      <c r="E66" s="11">
+        <f>ROUND((DAYS360(E64,E65,TRUE) +1) / 30,2)</f>
+        <v>1.23</v>
+      </c>
+      <c r="F66" s="11">
+        <f>ROUND((DAYS360(F64,F65,TRUE) +1) / 30,2)</f>
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B67" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C67" s="3">
+        <f>ROUND(MAX(MIN(C43-C60-C61,HEL_Lisä_Max),0 ),0)</f>
+        <v>800</v>
+      </c>
+      <c r="D67" s="3"/>
+      <c r="E67" s="3">
+        <f>ROUND(MAX(MIN(E43-E60-E61,HEL_Lisä_Max),0 ),0)</f>
+        <v>800</v>
+      </c>
+      <c r="F67" s="3">
+        <f>ROUND(MAX(MIN(F43-F60-F61,HEL_Lisä_Max),0 ),0)</f>
+        <v>675</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B68" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C68" s="3">
+        <f>ROUND(C66*C67,0)</f>
+        <v>880</v>
+      </c>
+      <c r="D68" s="3"/>
+      <c r="E68" s="3">
+        <f>ROUND(E66*E67,0)</f>
+        <v>984</v>
+      </c>
+      <c r="F68" s="3">
+        <f>ROUND(F66*F67,0)</f>
+        <v>722</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C69" s="3"/>
+      <c r="D69" s="3"/>
+      <c r="E69" s="3"/>
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B70" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="C70" s="3"/>
+      <c r="D70" s="3"/>
+      <c r="E70" s="3"/>
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C71" s="3"/>
+      <c r="D71" s="3"/>
+      <c r="E71" s="3"/>
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B72" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C73" s="3"/>
+      <c r="D73" s="3"/>
+      <c r="E73" s="3"/>
+      <c r="F73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F74" s="3">
+        <f>F35</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B75" s="7"/>
+    </row>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B76" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B77" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C77" s="4"/>
+      <c r="D77" s="4"/>
+      <c r="E77" s="4"/>
+      <c r="F77" s="4">
+        <v>45325</v>
+      </c>
+      <c r="L77" s="4"/>
+      <c r="P77" s="4"/>
+      <c r="S77" s="4"/>
+    </row>
+    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B78" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C78" s="4"/>
+      <c r="D78" s="4"/>
+      <c r="E78" s="4"/>
+      <c r="F78" s="4">
+        <v>45506</v>
+      </c>
+      <c r="L78" s="4"/>
+      <c r="P78" s="4"/>
+      <c r="S78" s="4"/>
+    </row>
+    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B79" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C79" s="4"/>
+      <c r="D79" s="4"/>
+      <c r="E79" s="11"/>
+      <c r="F79" s="11">
+        <f>ROUND((DAYS360(F77,F78,TRUE) +1) / 30,2)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B80" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C80" s="3"/>
+      <c r="D80" s="3"/>
+      <c r="E80" s="3"/>
+      <c r="F80" s="3">
+        <f>ROUND(MAX(MIN(F43-F73-F74,HEL_Lisä_Max),0 ),0)</f>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B81" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C81" s="3"/>
+      <c r="D81" s="3"/>
+      <c r="E81" s="3"/>
+      <c r="F81" s="3">
+        <f>F79*F80</f>
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C82" s="3"/>
+      <c r="D82" s="3"/>
+      <c r="E82" s="3"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B83" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C85" s="3">
+        <f>ROUND(C81+C68+C55,0)</f>
+        <v>9600</v>
+      </c>
+      <c r="D85" s="3">
+        <f>ROUND(D81+D68+D55,0)</f>
+        <v>9600</v>
+      </c>
+      <c r="E85" s="3">
+        <f>ROUND(E81+E68+E55,0)</f>
+        <v>7134</v>
+      </c>
+      <c r="F85" s="3">
+        <f>ROUND(F81+F68+F55,0)</f>
+        <v>8603</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:N7" xr:uid="{934D1134-CED9-4124-9A63-3538EC09BA9F}">
+      <formula1>"kyllä,ei"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F63721DB-A4C7-4B4E-AA2E-B452AE68552D}">
   <dimension ref="A5:S89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A68" sqref="A68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="43" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="56.5" style="1" customWidth="1"/>
@@ -3546,7 +8063,7 @@
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
@@ -3554,15 +8071,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B8" s="5"/>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -3570,7 +8087,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -3590,7 +8107,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
@@ -3610,7 +8127,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>16</v>
       </c>
@@ -3630,7 +8147,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>19</v>
       </c>
@@ -3658,7 +8175,7 @@
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>21</v>
       </c>
@@ -3686,7 +8203,7 @@
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
@@ -3713,7 +8230,7 @@
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
@@ -3742,7 +8259,7 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>27</v>
       </c>
@@ -3769,7 +8286,7 @@
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
@@ -3782,7 +8299,7 @@
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>29</v>
       </c>
@@ -3807,12 +8324,12 @@
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B21" s="6" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>32</v>
       </c>
@@ -3838,7 +8355,7 @@
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
     </row>
-    <row r="23" spans="1:13" s="13" customFormat="1">
+    <row r="23" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>34</v>
       </c>
@@ -3846,7 +8363,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>36</v>
       </c>
@@ -3866,7 +8383,7 @@
         <v>44411</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>38</v>
       </c>
@@ -3886,12 +8403,12 @@
         <v>44594</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>41</v>
       </c>
@@ -3908,7 +8425,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="29" spans="1:13" s="13" customFormat="1">
+    <row r="29" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>42</v>
       </c>
@@ -3916,7 +8433,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>43</v>
       </c>
@@ -3933,7 +8450,7 @@
         <v>44595</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>44</v>
       </c>
@@ -3950,12 +8467,12 @@
         <v>44775</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B33" s="6" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="34" spans="1:6" s="3" customFormat="1">
+    <row r="34" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>92</v>
       </c>
@@ -3975,7 +8492,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>94</v>
       </c>
@@ -3995,7 +8512,7 @@
         <v>44348</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>96</v>
       </c>
@@ -4015,12 +8532,12 @@
         <v>44561</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B38" s="6" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="39" spans="1:6" s="3" customFormat="1">
+    <row r="39" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>99</v>
       </c>
@@ -4031,7 +8548,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>100</v>
       </c>
@@ -4042,7 +8559,7 @@
         <v>44562</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>101</v>
       </c>
@@ -4053,17 +8570,17 @@
         <v>44843</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B44" s="5" t="s">
         <v>45</v>
       </c>
       <c r="D44" s="3"/>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>46</v>
       </c>
@@ -4084,7 +8601,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>48</v>
       </c>
@@ -4105,18 +8622,18 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="49" spans="1:16">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B49" s="6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="50" spans="1:16">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B50" s="8" t="s">
         <v>51</v>
       </c>
       <c r="D50" s="3"/>
     </row>
-    <row r="51" spans="1:16">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>52</v>
       </c>
@@ -4137,7 +8654,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="52" spans="1:16" s="3" customFormat="1">
+    <row r="52" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>102</v>
       </c>
@@ -4158,12 +8675,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="54" spans="1:16">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B54" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="55" spans="1:16">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>55</v>
       </c>
@@ -4183,7 +8700,7 @@
         <v>44411</v>
       </c>
     </row>
-    <row r="56" spans="1:16">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>57</v>
       </c>
@@ -4203,7 +8720,7 @@
         <v>44561</v>
       </c>
     </row>
-    <row r="57" spans="1:16">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>59</v>
       </c>
@@ -4226,7 +8743,7 @@
         <v>4.9333333333333336</v>
       </c>
     </row>
-    <row r="58" spans="1:16">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>61</v>
       </c>
@@ -4247,7 +8764,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="59" spans="1:16">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>63</v>
       </c>
@@ -4270,11 +8787,11 @@
         <v>3453.3333333333335</v>
       </c>
     </row>
-    <row r="60" spans="1:16">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
     </row>
-    <row r="61" spans="1:16">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B61" s="1" t="s">
         <v>65</v>
       </c>
@@ -4282,17 +8799,17 @@
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
     </row>
-    <row r="62" spans="1:16">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
     </row>
-    <row r="63" spans="1:16">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B63" s="8" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="64" spans="1:16">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>66</v>
       </c>
@@ -4313,7 +8830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:19">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>103</v>
       </c>
@@ -4324,15 +8841,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="66" spans="1:19">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B66" s="7"/>
     </row>
-    <row r="67" spans="1:19">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B67" s="7" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="68" spans="1:19">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>67</v>
       </c>
@@ -4355,7 +8872,7 @@
         <v>44635</v>
       </c>
     </row>
-    <row r="69" spans="1:19">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>68</v>
       </c>
@@ -4378,7 +8895,7 @@
         <v>44818</v>
       </c>
     </row>
-    <row r="70" spans="1:19">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>69</v>
       </c>
@@ -4402,7 +8919,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="1:19">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>70</v>
       </c>
@@ -4426,7 +8943,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="72" spans="1:19">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>71</v>
       </c>
@@ -4450,12 +8967,12 @@
         <v>4800</v>
       </c>
     </row>
-    <row r="73" spans="1:19">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
     </row>
-    <row r="74" spans="1:19">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B74" s="1" t="s">
         <v>104</v>
       </c>
@@ -4463,17 +8980,17 @@
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
     </row>
-    <row r="75" spans="1:19">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
     </row>
-    <row r="76" spans="1:19">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B76" s="8" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="77" spans="1:19">
+    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>105</v>
       </c>
@@ -4494,7 +9011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:19">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>106</v>
       </c>
@@ -4505,15 +9022,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="79" spans="1:19">
+    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B79" s="7"/>
     </row>
-    <row r="80" spans="1:19">
+    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B80" s="7" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="81" spans="1:19">
+    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>107</v>
       </c>
@@ -4536,7 +9053,7 @@
         <v>44635</v>
       </c>
     </row>
-    <row r="82" spans="1:19">
+    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>108</v>
       </c>
@@ -4559,7 +9076,7 @@
         <v>44818</v>
       </c>
     </row>
-    <row r="83" spans="1:19">
+    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>109</v>
       </c>
@@ -4583,7 +9100,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="84" spans="1:19">
+    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>110</v>
       </c>
@@ -4607,7 +9124,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="85" spans="1:19">
+    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>111</v>
       </c>
@@ -4631,17 +9148,17 @@
         <v>4800</v>
       </c>
     </row>
-    <row r="86" spans="1:19">
+    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
       <c r="E86" s="3"/>
     </row>
-    <row r="87" spans="1:19">
+    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B87" s="5" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="89" spans="1:19">
+    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>74</v>
       </c>
@@ -4664,7 +9181,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C11:N11" xr:uid="{934D1134-CED9-4124-9A63-3538EC09BA9F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C11:N11" xr:uid="{E79E981F-F7BA-4B95-B973-616A52CAFA98}">
       <formula1>"kyllä,ei"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4674,6 +9191,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -4682,7 +9205,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Asiakirja" ma:contentTypeID="0x010100CAF7ADE3AA2C4F47B31D86CF228B1A1B" ma:contentTypeVersion="8" ma:contentTypeDescription="Luo uusi asiakirja." ma:contentTypeScope="" ma:versionID="422d69724fef33e2627ac0a99aa974bb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="65f642d6-c80b-4d40-abb9-a8d9dbd74e6c" xmlns:ns3="2508c34a-babd-41ce-9e6c-af557d430dc1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d0b508963d41128d30472b39fea4e0cf" ns2:_="" ns3:_="">
     <xsd:import namespace="65f642d6-c80b-4d40-abb9-a8d9dbd74e6c"/>
@@ -4873,20 +9396,46 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B745B69C-83B0-4141-8012-52E7AD28B3A0}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B13C59C-7030-45E8-A301-EF2965275604}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="65f642d6-c80b-4d40-abb9-a8d9dbd74e6c"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="2508c34a-babd-41ce-9e6c-af557d430dc1"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1114C8C5-B64D-4E90-B051-196A471FB8EA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B745B69C-83B0-4141-8012-52E7AD28B3A0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B13C59C-7030-45E8-A301-EF2965275604}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1114C8C5-B64D-4E90-B051-196A471FB8EA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="65f642d6-c80b-4d40-abb9-a8d9dbd74e6c"/>
+    <ds:schemaRef ds:uri="2508c34a-babd-41ce-9e6c-af557d430dc1"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>